--- a/va_facility_data_2025-02-20/Dover VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dover%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dover VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dover%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2800519578ad4515a6f98982235fee38"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rebf47c7664f14974a46fe5fccb76f278"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbaedaab3181844b9a3326493186472bf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R293f115e3e1340eb8793e41b79bccce7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc0d63fd8a4734433b6223b3378cbec14"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R285c89ece48e43b19d0a0288fa678bb3"/>
   </x:sheets>
 </x:workbook>
 </file>
